--- a/ml_ai/trees/Пример создания дерева принятия решений.xlsx
+++ b/ml_ai/trees/Пример создания дерева принятия решений.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
   <si>
     <t>Petal width</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Gini Index Petal width = 0.3</t>
   </si>
   <si>
-    <t>Взвешенный GINI INDEX Petal width</t>
-  </si>
-  <si>
-    <t>Взвешенный GINI INDEX Sepal width</t>
-  </si>
-  <si>
     <t>P(species = Iris Setosa|Sepal width = 2,6)</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Gini Index Sepal width = 2,9</t>
   </si>
   <si>
-    <t>Взвешенный GINI INDEX Color</t>
-  </si>
-  <si>
     <t>P(species = Iris Setosa|Color = blue)</t>
   </si>
   <si>
@@ -156,9 +147,6 @@
     <t>Gini Index Color = yellow</t>
   </si>
   <si>
-    <t>На первом этапе выбираем Petal width, потому что взвешенный индекс джини есть наименьший</t>
-  </si>
-  <si>
     <t>Вопрос "Petal width больше 0,3?" потому что индекс джини для этого значения наименьший и является 0</t>
   </si>
   <si>
@@ -169,6 +157,21 @@
   </si>
   <si>
     <t>КОРНЕВОЙ СПЛИТ</t>
+  </si>
+  <si>
+    <t>НЕ сходится с ответами…</t>
+  </si>
+  <si>
+    <t>weighted GINI INDEX Petal width</t>
+  </si>
+  <si>
+    <t>weighted GINI INDEX Sepal width</t>
+  </si>
+  <si>
+    <t>weighted GINI INDEX Color</t>
+  </si>
+  <si>
+    <t>На первом этапе выбираем Petal width, потому что weighted индекс джини есть наименьший</t>
   </si>
 </sst>
 </file>
@@ -329,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -348,9 +351,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -371,11 +371,17 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,15 +455,21 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -483,74 +495,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Revert"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -625,21 +569,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -699,6 +637,40 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
@@ -726,16 +698,50 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Revert"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -749,27 +755,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="5" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A1:D6">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="1,40"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="purple"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState ref="A2:D6">
-    <sortCondition ref="C1:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:D6"/>
+  <sortState ref="A3:D6">
+    <sortCondition ref="D1:D6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="8" totalsRowDxfId="2"/>
-    <tableColumn id="3" name="Color" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Species" dataDxfId="6" totalsRowDxfId="4"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="6" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Color" dataDxfId="4" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Species" dataDxfId="2" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,7 +1073,7 @@
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1092,17 +1087,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17.25" hidden="1">
+    <row r="2" spans="1:7" ht="17.25">
       <c r="A2" s="1">
         <v>0.3</v>
       </c>
       <c r="B2" s="1">
         <v>2.9</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1113,10 +1108,10 @@
       <c r="B3" s="1">
         <v>2.6</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1127,10 +1122,10 @@
       <c r="B4" s="1">
         <v>2.7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1139,51 +1134,48 @@
         <v>1.4</v>
       </c>
       <c r="B5" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="16" t="s">
+        <v>2.6</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="46.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:7" ht="46.5" customHeight="1">
       <c r="A6" s="1">
         <v>1.4</v>
       </c>
       <c r="B6" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="16" t="s">
+        <v>2.9</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="185.25" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="17"/>
       <c r="F7" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="1:7" ht="31.5">
-      <c r="A8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9"/>
+      <c r="A8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="5" t="s">
@@ -1353,14 +1345,14 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7">
         <f>(1/5)*B16+(4/5)*B24</f>
         <v>0.4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7">
         <f>1*G24</f>
@@ -1374,23 +1366,23 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="31.5">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="F27" s="9" t="s">
+      <c r="B27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="9"/>
-    </row>
-    <row r="28" spans="1:7" ht="31.5">
-      <c r="A28" s="10" t="s">
+      <c r="G27" s="16"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="6">
         <v>2.6</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="6">
@@ -1399,7 +1391,7 @@
     </row>
     <row r="29" spans="1:7" ht="17.25">
       <c r="A29" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4"/>
       <c r="F29" s="4"/>
@@ -1415,70 +1407,70 @@
     </row>
     <row r="31" spans="1:7" ht="17.25">
       <c r="A31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31" s="4"/>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="B32" s="3"/>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>0.5</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" ht="17.25">
       <c r="A33" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B33" s="4"/>
       <c r="F33" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="B34" s="3"/>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>0.5</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="3">
         <f>1-(A32*A32+A34*A34)</f>
         <v>0.5</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G35" s="3">
         <f>1-(F32*F32+F34*F34)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="31.5">
-      <c r="A36" s="10" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B36" s="6">
         <v>2.7</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="6">
@@ -1487,82 +1479,82 @@
     </row>
     <row r="37" spans="1:7" ht="17.25">
       <c r="A37" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>0</v>
       </c>
       <c r="B38" s="3"/>
-      <c r="F38" s="11"/>
+      <c r="F38" s="10"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="17.25">
       <c r="A39" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B39" s="4"/>
       <c r="F39" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>0</v>
       </c>
       <c r="B40" s="3"/>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>0</v>
       </c>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" ht="17.25">
       <c r="A41" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B41" s="4"/>
       <c r="F41" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>1</v>
       </c>
       <c r="B42" s="3"/>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>1</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.5">
-      <c r="A44" s="10" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="6">
         <v>2.9</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F44" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G44" s="6">
@@ -1571,72 +1563,72 @@
     </row>
     <row r="45" spans="1:7" ht="17.25">
       <c r="A45" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="B46" s="3"/>
-      <c r="F46" s="11"/>
+      <c r="F46" s="10"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" ht="17.25">
       <c r="A47" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B47" s="4"/>
       <c r="F47" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="B48" s="3"/>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>1</v>
       </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" ht="17.25">
       <c r="A49" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B49" s="4"/>
       <c r="F49" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>0</v>
       </c>
       <c r="B50" s="3"/>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>0</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B51" s="3">
         <f>1-(A48*A48+A50*A50)</f>
         <v>0.75</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G51" s="3">
         <f>1-(F48*F48+F50*F50)</f>
@@ -1645,43 +1637,43 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B52" s="7">
         <f>2/5 * B35 + 2/5*B51</f>
         <v>0.5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="G52" s="7">
-        <f>2/4 * G35 + 1/4*G51</f>
+        <f>(2/4) * G35</f>
         <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.5">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="F54" s="9" t="s">
+      <c r="B54" s="16"/>
+      <c r="F54" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="1:7" ht="15.75">
-      <c r="A55" s="10" t="s">
+      <c r="G54" s="16"/>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="10"/>
+      <c r="F55" s="9"/>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:7" ht="17.25">
       <c r="A56" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B56" s="4"/>
       <c r="F56" s="4"/>
@@ -1697,39 +1689,39 @@
     </row>
     <row r="58" spans="1:7" ht="17.25">
       <c r="A58" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <v>0</v>
       </c>
       <c r="B59" s="3"/>
-      <c r="F59" s="11"/>
+      <c r="F59" s="10"/>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="17.25">
       <c r="A60" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>0</v>
       </c>
       <c r="B61" s="3"/>
-      <c r="F61" s="11"/>
+      <c r="F61" s="10"/>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B62" s="3">
         <f>1-(A59*A59+A61*A61)</f>
@@ -1738,14 +1730,14 @@
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
     </row>
-    <row r="63" spans="1:7" ht="15.75">
-      <c r="A63" s="10" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F63" s="10" t="s">
+      <c r="F63" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G63" s="6" t="s">
@@ -1754,88 +1746,88 @@
     </row>
     <row r="64" spans="1:7" ht="17.25">
       <c r="A64" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>0</v>
       </c>
       <c r="B65" s="3"/>
-      <c r="F65" s="11"/>
+      <c r="F65" s="10"/>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" ht="17.25">
       <c r="A66" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B66" s="4"/>
       <c r="F66" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <f>1/3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="B67" s="3"/>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" ht="17.25">
+      <c r="A68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="F68" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" s="4"/>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="10">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" ht="17.25">
-      <c r="A68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="4"/>
-      <c r="F68" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="11">
+      <c r="B69" s="3"/>
+      <c r="F69" s="10">
         <f>2/3</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="F69" s="11">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B70" s="3">
         <f>1-(A65*A65+A67*A67+A69*A69)</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G70" s="3">
         <f>1-(F65*F65+F67*F67+F69*F69)</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15.75">
-      <c r="A71" s="10" t="s">
+    <row r="71" spans="1:7">
+      <c r="A71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="10" t="s">
+      <c r="F71" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G71" s="6" t="s">
@@ -1844,72 +1836,72 @@
     </row>
     <row r="72" spans="1:7" ht="17.25">
       <c r="A72" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="B73" s="3"/>
-      <c r="F73" s="11"/>
+      <c r="F73" s="10"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" ht="17.25">
       <c r="A74" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B74" s="4"/>
       <c r="F74" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <f>1/2</f>
         <v>0.5</v>
       </c>
       <c r="B75" s="3"/>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>1</v>
       </c>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" ht="17.25">
       <c r="A76" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B76" s="4"/>
       <c r="F76" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>0</v>
       </c>
       <c r="B77" s="3"/>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>0</v>
       </c>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B78" s="3">
         <f>1-(A75*A75+A77*A77+A73*A73)</f>
         <v>0.5</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G78" s="3">
         <f>1-(F75*F75+F77*F77+F73*F73)</f>
@@ -1918,14 +1910,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B79" s="7">
         <f>(1/5)*B62+(3/5)*B70+(1/5)*B78</f>
         <v>0.56666666666666665</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G79" s="7">
         <f>(3/4)*G62+(3/5)*G70</f>
@@ -1934,16 +1926,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="F81" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2005,12 +2000,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.5">
+      <c r="A1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="51.75">
+      <c r="A2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="51.75">
+      <c r="A3" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="51.75">
+      <c r="A4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="51.75">
+      <c r="A5" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A5">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/ml_ai/trees/Пример создания дерева принятия решений.xlsx
+++ b/ml_ai/trees/Пример создания дерева принятия решений.xlsx
@@ -159,9 +159,6 @@
     <t>КОРНЕВОЙ СПЛИТ</t>
   </si>
   <si>
-    <t>НЕ сходится с ответами…</t>
-  </si>
-  <si>
     <t>weighted GINI INDEX Petal width</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>На первом этапе выбираем Petal width, потому что weighted индекс джини есть наименьший</t>
+  </si>
+  <si>
+    <t>НЕ сходится с ответами…Sepal width меньше колор</t>
   </si>
 </sst>
 </file>
@@ -371,6 +371,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -380,24 +383,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -744,6 +734,16 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -755,16 +755,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
   <autoFilter ref="A1:D6"/>
   <sortState ref="A3:D6">
     <sortCondition ref="D1:D6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="8" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="6" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Color" dataDxfId="4" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Species" dataDxfId="2" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Color" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Species" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1059,8 +1059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1158,24 +1158,24 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="185.25" customHeight="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="F7" s="18" t="s">
+      <c r="B7" s="18"/>
+      <c r="F7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="31.5">
-      <c r="A8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16"/>
-      <c r="F8" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16"/>
+      <c r="A8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="17"/>
     </row>
     <row r="9" spans="1:7" ht="15.75">
       <c r="A9" s="5" t="s">
@@ -1345,14 +1345,14 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="7">
         <f>(1/5)*B16+(4/5)*B24</f>
         <v>0.4</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" s="7">
         <f>1*G24</f>
@@ -1366,14 +1366,14 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="31.5">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="F27" s="16" t="s">
+      <c r="B27" s="17"/>
+      <c r="F27" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="17"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
@@ -1637,14 +1637,14 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" s="7">
         <f>2/5 * B35 + 2/5*B51</f>
         <v>0.5</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G52" s="7">
         <f>(2/4) * G35</f>
@@ -1652,14 +1652,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.5">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="F54" s="16" t="s">
+      <c r="B54" s="17"/>
+      <c r="F54" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="16"/>
+      <c r="G54" s="17"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="9" t="s">
@@ -1910,18 +1910,18 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B79" s="7">
         <f>(1/5)*B62+(3/5)*B70+(1/5)*B78</f>
         <v>0.56666666666666665</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G79" s="7">
-        <f>(3/4)*G62+(3/5)*G70</f>
-        <v>0.26666666666666666</v>
+        <f>(3/4)*G62+(3/4)*G70</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1931,7 +1931,7 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1939,7 +1939,7 @@
         <v>43</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1954,7 +1954,7 @@
     <mergeCell ref="F54:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -2009,10 +2009,10 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2" ht="31.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ml_ai/trees/Пример создания дерева принятия решений.xlsx
+++ b/ml_ai/trees/Пример создания дерева принятия решений.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
   <si>
     <t>Petal width</t>
   </si>
@@ -332,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -383,44 +383,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF212529"/>
-        <name val="Segoe UI"/>
-        <scheme val="none"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -687,6 +666,396 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Revert"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color rgb="FF000000"/>
@@ -734,16 +1103,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -755,16 +1114,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="10" headerRowBorderDxfId="9" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A1:D6"/>
   <sortState ref="A3:D6">
     <sortCondition ref="D1:D6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="7" totalsRowDxfId="6"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="3" name="Color" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="4" name="Species" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="3" name="Color" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" name="Species" dataDxfId="14" totalsRowDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="F1:I5" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+  <autoFilter ref="F1:I5"/>
+  <sortState ref="F2:I5">
+    <sortCondition ref="I1:I6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="7" totalsRowDxfId="8"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="5" totalsRowDxfId="6"/>
+    <tableColumn id="3" name="Color" dataDxfId="3" totalsRowDxfId="4"/>
+    <tableColumn id="4" name="Species" dataDxfId="1" totalsRowDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1057,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1073,7 +1448,7 @@
     <col min="7" max="7" width="60.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9" ht="30">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1086,8 +1461,20 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.25">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="51.75">
       <c r="A2" s="1">
         <v>0.3</v>
       </c>
@@ -1100,8 +1487,20 @@
       <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="34.5">
+      <c r="F2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51.75">
       <c r="A3" s="1">
         <v>1.4</v>
       </c>
@@ -1114,8 +1513,20 @@
       <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="34.5">
+      <c r="F3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="51.75">
       <c r="A4" s="1">
         <v>1.4</v>
       </c>
@@ -1128,8 +1539,20 @@
       <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34.5">
+      <c r="F4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="51.75">
       <c r="A5" s="1">
         <v>1.4</v>
       </c>
@@ -1142,8 +1565,20 @@
       <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="46.5" customHeight="1">
+      <c r="F5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="46.5" customHeight="1">
       <c r="A6" s="1">
         <v>1.4</v>
       </c>
@@ -1156,8 +1591,10 @@
       <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="185.25" customHeight="1">
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:9" ht="86.25" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>46</v>
       </c>
@@ -1167,7 +1604,7 @@
       </c>
       <c r="G7" s="19"/>
     </row>
-    <row r="8" spans="1:7" ht="31.5">
+    <row r="8" spans="1:9" ht="31.5">
       <c r="A8" s="17" t="s">
         <v>0</v>
       </c>
@@ -1177,7 +1614,7 @@
       </c>
       <c r="G8" s="17"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
@@ -1187,7 +1624,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" ht="17.25">
+    <row r="10" spans="1:9" ht="17.25">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1632,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="3">
         <f>1/1</f>
         <v>1</v>
@@ -1204,7 +1641,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" ht="17.25">
+    <row r="12" spans="1:9" ht="17.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1212,7 +1649,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13" s="3">
         <v>0</v>
       </c>
@@ -1220,7 +1657,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="17.25">
+    <row r="14" spans="1:9" ht="17.25">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1665,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15" s="3">
         <v>0</v>
       </c>
@@ -1236,7 +1673,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1954,8 +2391,8 @@
     <mergeCell ref="F54:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="11" priority="4"/>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1967,7 +2404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1979,7 +2416,31 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F6">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G6">
+    <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1992,8 +2453,9 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>

--- a/ml_ai/trees/Пример создания дерева принятия решений.xlsx
+++ b/ml_ai/trees/Пример создания дерева принятия решений.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="13395" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="13395" windowHeight="11835" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="НЕПРАВИЛЬНО" sheetId="1" r:id="rId1"/>
+    <sheet name="ОБУЧЕНИЕ" sheetId="2" r:id="rId2"/>
+    <sheet name="ПРОВЕРКА" sheetId="3" r:id="rId3"/>
+    <sheet name="ПРАВИЛЬНО" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
   <si>
     <t>Petal width</t>
   </si>
@@ -172,13 +173,154 @@
   </si>
   <si>
     <t>НЕ сходится с ответами…Sepal width меньше колор</t>
+  </si>
+  <si>
+    <t>Is the color yellow</t>
+  </si>
+  <si>
+    <t>мы видим, что при этом цвете можно отличить только Iris Virginica с вероятностью 1. Поэтому для остальных списис вероятности будут 0.</t>
+  </si>
+  <si>
+    <t>Дальше в примере мы видим как считается индекс джини для желтого.</t>
+  </si>
+  <si>
+    <t>1/3 - отношение виргиники ко всем строкам</t>
+  </si>
+  <si>
+    <t>потом по формуле 1 - квадрат от вероятности нужного случая, как раз 1 - 1 в кв-те(ее мы определили ранее).</t>
+  </si>
+  <si>
+    <t>А вот дальше непонятная херня, буду писать догатки</t>
+  </si>
+  <si>
+    <t>Далее наверное считается взвешенный индекс джини для обратного случая, цвет не желтый.</t>
+  </si>
+  <si>
+    <t>(2/3)*(1 - (2/2)^2)</t>
+  </si>
+  <si>
+    <t>2/3 - это оставшиеся не нужные случаи - 2 строки про Iris Versicolor деленные на все строки</t>
+  </si>
+  <si>
+    <t>2/2 - это отношение всех Iris Versicolor к значениям color кроме желтого.</t>
+  </si>
+  <si>
+    <t>Предположу. что если бы значение списис было больше - то таких дробей вквадрате было бы больше</t>
+  </si>
+  <si>
+    <t>is the color blue?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1/3) * (1*1^2) + (2/3) * (1 - (1/2)^2 +(1/2)^2)  </t>
+  </si>
+  <si>
+    <t>is the color purple?</t>
+  </si>
+  <si>
+    <t>In this case, there are only two possible decision rules:</t>
+  </si>
+  <si>
+    <r>
+      <t>The rule is</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> "Is the petal width less or equal to 0.6?";</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> No more splitting is performed.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Is the petal width less or equal to 0.6? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>The weighted sum: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13.3"/>
+        <color rgb="FF212529"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Is the petal width less or equal to 1.3?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t> The weighted sum:</t>
+    </r>
+  </si>
+  <si>
+    <t>ПОЧЕМУ ТОЛЬКО 2 ПРАВИЛА, А НЕ ДЛЯ ВСЕХ ЗНАЧЕНИЙ Я НЕ ПОНЯЛ. НАВЕРНОЕ ДЕЛО В ИМПУРИТИ И ИНФОРМАТИОН ГЕЙН. ТО есть один из путей сплита всегда образует множетсво одиннаковых объектов</t>
+  </si>
+  <si>
+    <t>1/4 * (1 - 1*1) + (3/4)*(1-(2/3)*(2/3) - (1/3)*(1/3))</t>
+  </si>
+  <si>
+    <t>2/4*(1-1/2*1/2-1/2*1/2) + 2/4*(1-1/2*1/2-1/2*1/2)</t>
+  </si>
+  <si>
+    <t>Is the petal width less or equal to 0.3?</t>
+  </si>
+  <si>
+    <t>Is the petal width less or equal to 1.3?</t>
+  </si>
+  <si>
+    <t>Is the sepal width less or equal to 2.6?</t>
+  </si>
+  <si>
+    <t>Is the sepal width less or equal to 2.7?</t>
+  </si>
+  <si>
+    <t>Is the color yellow?</t>
+  </si>
+  <si>
+    <t>Is the color blue?</t>
+  </si>
+  <si>
+    <t>Is the color purple?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,8 +374,43 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Revert"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7.7"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="13.3"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +459,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -328,11 +522,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -371,8 +636,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -383,24 +648,59 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <font>
         <b val="0"/>
@@ -759,6 +1059,315 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Revert"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Revert"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1103,6 +1712,352 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Revert"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1113,33 +2068,229 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1095375"/>
+          <a:ext cx="5838825" cy="409575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="6619875"/>
+          <a:ext cx="6981825" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141877</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9419</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3895725"/>
+          <a:ext cx="7980952" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A1:D6"/>
   <sortState ref="A3:D6">
     <sortCondition ref="D1:D6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="3" name="Color" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="4" name="Species" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="46" totalsRowDxfId="45"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="3" name="Color" dataDxfId="42" totalsRowDxfId="41"/>
+    <tableColumn id="4" name="Species" dataDxfId="40" totalsRowDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="F1:I5" headerRowDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="F1:I5" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="F1:I5"/>
   <sortState ref="F2:I5">
     <sortCondition ref="I1:I6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="7" totalsRowDxfId="8"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="5" totalsRowDxfId="6"/>
-    <tableColumn id="3" name="Color" dataDxfId="3" totalsRowDxfId="4"/>
-    <tableColumn id="4" name="Species" dataDxfId="1" totalsRowDxfId="2"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="3" name="Color" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="4" name="Species" dataDxfId="29" totalsRowDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+  <autoFilter ref="A1:B4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Color" dataDxfId="24"/>
+    <tableColumn id="2" name="Species" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:B5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="15" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+  <autoFilter ref="A1:B5"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Petal width" dataDxfId="14"/>
+    <tableColumn id="2" name="Species" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица16" displayName="Таблица16" ref="A1:D6" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="A1:D6"/>
+  <sortState ref="A2:D5">
+    <sortCondition ref="D1:D6"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="6" totalsRowDxfId="7"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="4" totalsRowDxfId="5"/>
+    <tableColumn id="3" name="Color" dataDxfId="2" totalsRowDxfId="3"/>
+    <tableColumn id="4" name="Species" dataDxfId="0" totalsRowDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1434,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1591,8 +2742,8 @@
       <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="86.25" customHeight="1">
       <c r="A7" s="18" t="s">
@@ -2391,7 +3542,7 @@
     <mergeCell ref="F54:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -2462,56 +3613,414 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.5">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:2" ht="15.75">
+      <c r="A1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25">
+      <c r="A2" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="17.25">
+      <c r="A3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="17.25">
+      <c r="A4" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="17.25">
+      <c r="A6" s="28"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="29"/>
+    </row>
+    <row r="9" spans="1:2" s="31" customFormat="1">
+      <c r="A9" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="31" customFormat="1">
+      <c r="A26" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15.75">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="17.25">
+      <c r="A2" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="34.5">
+      <c r="A3" s="34">
+        <v>1.3</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34.5">
+      <c r="A4" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="34.5">
+      <c r="A5" s="34">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="17.25">
+      <c r="A7" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="30"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.25">
+      <c r="A9" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="36">
+        <f>1/4 * (1 - 1*1) + (3/4)*(1-(2/3)*(2/3) - (1/3)*(1/3))</f>
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="30"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.25">
+      <c r="A11" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="36">
+        <f>2/4*(1-1/2*1/2-1/2*1/2) + 2/4*(1-1/2*1/2-1/2*1/2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="30"/>
+    </row>
+    <row r="13" spans="1:13" ht="17.25">
+      <c r="A13" s="32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="17.25">
+      <c r="A15" s="35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="31.5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75">
+    <row r="2" spans="1:4" ht="17.25">
       <c r="A2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="34.5">
+      <c r="A3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B3" s="1">
         <v>2.6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="51.75">
-      <c r="A3" s="1">
+    <row r="4" spans="1:4" ht="34.5">
+      <c r="A4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.7</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="C4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="51.75">
-      <c r="A4" s="1">
+    <row r="5" spans="1:4" ht="34.5">
+      <c r="A5" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="1">
         <v>2.6</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="51.75">
-      <c r="A5" s="1">
+    <row r="6" spans="1:4" ht="34.5">
+      <c r="A6" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
         <v>2.9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="17.25">
+      <c r="A9" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.25">
+      <c r="A10" s="38" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.25">
+      <c r="A11" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.25">
+      <c r="A12" s="38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17.25">
+      <c r="A13" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.25">
+      <c r="A14" s="37" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17.25">
+      <c r="A15" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5">
+  <conditionalFormatting sqref="D2">
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B6">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2524,17 +4033,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/ml_ai/trees/Пример создания дерева принятия решений.xlsx
+++ b/ml_ai/trees/Пример создания дерева принятия решений.xlsx
@@ -10,14 +10,14 @@
     <sheet name="НЕПРАВИЛЬНО" sheetId="1" r:id="rId1"/>
     <sheet name="ОБУЧЕНИЕ" sheetId="2" r:id="rId2"/>
     <sheet name="ПРОВЕРКА" sheetId="3" r:id="rId3"/>
-    <sheet name="ПРАВИЛЬНО" sheetId="4" r:id="rId4"/>
+    <sheet name="all staff" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>Petal width</t>
   </si>
@@ -310,17 +310,50 @@
     <t>Is the color yellow?</t>
   </si>
   <si>
-    <t>Is the color blue?</t>
-  </si>
-  <si>
     <t>Is the color purple?</t>
+  </si>
+  <si>
+    <t>1/5*(1-1) + 4/5(1 - 2/4*2/4-2/4*2/4)</t>
+  </si>
+  <si>
+    <t>first split</t>
+  </si>
+  <si>
+    <t>second split</t>
+  </si>
+  <si>
+    <t>2/4*(1-1/2*1/2) + 2/4*(1-1/2*1/2)</t>
+  </si>
+  <si>
+    <t>3/4*(1-2/3*2/3-1/3*1/3) + 1/4*(1-1)</t>
+  </si>
+  <si>
+    <t>1/4*(1-1) + 3/4*(1-2/3*2/3 - 1/3*1/3)</t>
+  </si>
+  <si>
+    <t>наверное это лучше потому что отсекается объект одного типа</t>
+  </si>
+  <si>
+    <t>отсекаются объекты 2 типов</t>
+  </si>
+  <si>
+    <t>3/4*(1-2/3*2/3-1/3*1/3) + 1/4 * (1-1)</t>
+  </si>
+  <si>
+    <t>third split</t>
+  </si>
+  <si>
+    <t>1/3*(1-1) + 2/3*(1-1/2*1/2-1/2*1/2)</t>
+  </si>
+  <si>
+    <t>2/3 * (1-1) + 1/3 * (1-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,8 +442,26 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="204"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +524,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,7 +654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -638,15 +695,6 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -690,17 +738,56 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="73">
     <dxf>
       <font>
         <b val="0"/>
@@ -724,21 +811,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -763,7 +844,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -771,8 +852,12 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -798,21 +883,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -837,7 +916,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -845,8 +924,12 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -865,7 +948,6 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -873,21 +955,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -906,13 +982,14 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -920,8 +997,32 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -937,32 +1038,25 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Segoe UI"/>
+        <name val="Revert"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1000,20 +1094,6 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1026,7 +1106,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Revert"/>
+        <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1035,7 +1115,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1043,39 +1123,13 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1093,34 +1147,23 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
+      <fill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1139,41 +1182,13 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FF000000"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1201,7 +1216,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Revert"/>
+        <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1210,7 +1225,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1221,14 +1236,6 @@
         <top/>
         <bottom/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1243,16 +1250,17 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Revert"/>
+        <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1260,8 +1268,32 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1277,27 +1309,25 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Segoe UI"/>
+        <name val="Revert"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1317,53 +1347,21 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1388,7 +1386,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1396,8 +1394,12 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1423,21 +1425,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1462,7 +1458,7 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1470,8 +1466,12 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1497,21 +1497,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1530,13 +1524,14 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1544,8 +1539,12 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1564,7 +1563,6 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1572,21 +1570,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1605,13 +1597,14 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1619,8 +1612,32 @@
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1636,47 +1653,36 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Segoe UI"/>
+        <name val="Revert"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1691,25 +1697,27 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Revert"/>
+        <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1728,22 +1736,63 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1759,7 +1808,7 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Segoe UI"/>
+        <name val="Revert"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -1768,22 +1817,16 @@
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1803,9 +1846,9 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1813,11 +1856,13 @@
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
-        <right style="thin">
-          <color rgb="FF000000"/>
-        </right>
-        <top/>
-        <bottom/>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1837,13 +1882,34 @@
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
@@ -1856,8 +1922,21 @@
         <bottom style="thin">
           <color rgb="FF000000"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1873,16 +1952,16 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
-        <name val="Segoe UI"/>
+        <name val="Revert"/>
         <scheme val="none"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
@@ -1910,7 +1989,6 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1918,21 +1996,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1958,15 +2030,21 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top/>
-        <bottom/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1985,7 +2063,6 @@
         <name val="Segoe UI"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1993,35 +2070,15 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color rgb="FF000000"/>
         </left>
         <right style="thin">
           <color rgb="FF000000"/>
         </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2037,6 +2094,210 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
         <name val="Revert"/>
         <scheme val="none"/>
       </font>
@@ -2057,6 +2318,362 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Segoe UI"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF212529"/>
+        <name val="Revert"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2227,70 +2844,100 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="49" headerRowBorderDxfId="48" tableBorderDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A1:D6" headerRowDxfId="71" headerRowBorderDxfId="70" tableBorderDxfId="69">
   <autoFilter ref="A1:D6"/>
   <sortState ref="A3:D6">
     <sortCondition ref="D1:D6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="3" name="Color" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="4" name="Species" dataDxfId="40" totalsRowDxfId="39"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="68" totalsRowDxfId="67"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="66" totalsRowDxfId="65"/>
+    <tableColumn id="3" name="Color" dataDxfId="64" totalsRowDxfId="63"/>
+    <tableColumn id="4" name="Species" dataDxfId="62" totalsRowDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="F1:I5" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица13" displayName="Таблица13" ref="F1:I5" headerRowDxfId="60" headerRowBorderDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="F1:I5"/>
   <sortState ref="F2:I5">
     <sortCondition ref="I1:I6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="35" totalsRowDxfId="34"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="33" totalsRowDxfId="32"/>
-    <tableColumn id="3" name="Color" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="4" name="Species" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="3" name="Color" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="4" name="Species" dataDxfId="51" totalsRowDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="26" tableBorderDxfId="27" totalsRowBorderDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Таблица3" displayName="Таблица3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46" totalsRowBorderDxfId="45">
   <autoFilter ref="A1:B4"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Color" dataDxfId="24"/>
-    <tableColumn id="2" name="Species" dataDxfId="23"/>
+    <tableColumn id="1" name="Color" dataDxfId="44"/>
+    <tableColumn id="2" name="Species" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:B5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="15" headerRowBorderDxfId="18" tableBorderDxfId="19" totalsRowBorderDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Таблица4" displayName="Таблица4" ref="A1:B5" totalsRowShown="0" headerRowDxfId="42" dataDxfId="40" headerRowBorderDxfId="41" tableBorderDxfId="39" totalsRowBorderDxfId="38">
   <autoFilter ref="A1:B5"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Petal width" dataDxfId="14"/>
-    <tableColumn id="2" name="Species" dataDxfId="16"/>
+    <tableColumn id="1" name="Petal width" dataDxfId="37"/>
+    <tableColumn id="2" name="Species" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица16" displayName="Таблица16" ref="A1:D6" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Таблица16" displayName="Таблица16" ref="A1:D6" headerRowDxfId="34" dataDxfId="32" totalsRowDxfId="30" headerRowBorderDxfId="33" tableBorderDxfId="31">
   <autoFilter ref="A1:D6"/>
-  <sortState ref="A2:D5">
-    <sortCondition ref="D1:D6"/>
+  <sortState ref="A3:D6">
+    <sortCondition ref="B1:B6"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="6" totalsRowDxfId="7"/>
-    <tableColumn id="2" name="Sepal width" dataDxfId="4" totalsRowDxfId="5"/>
-    <tableColumn id="3" name="Color" dataDxfId="2" totalsRowDxfId="3"/>
-    <tableColumn id="4" name="Species" dataDxfId="0" totalsRowDxfId="1"/>
+    <tableColumn id="1" name="Petal width" totalsRowLabel="Итог" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="Sepal width" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="Color" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="4" name="Species" dataDxfId="23" totalsRowDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Таблица167" displayName="Таблица167" ref="G1:I5" headerRowDxfId="21" dataDxfId="19" totalsRowDxfId="17" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="G1:I5"/>
+  <sortState ref="G2:I5">
+    <sortCondition ref="H1:H5"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="2" name="Sepal width" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="3" name="Color" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="4" name="Species" dataDxfId="12" totalsRowDxfId="11"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Таблица16712" displayName="Таблица16712" ref="V1:X5" headerRowDxfId="10" dataDxfId="8" totalsRowDxfId="6" headerRowBorderDxfId="9" tableBorderDxfId="7">
+  <autoFilter ref="V1:X5"/>
+  <sortState ref="V2:X5">
+    <sortCondition ref="W1:W5"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="2" name="Sepal width" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="3" name="Color" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="4" name="Species" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2746,24 +3393,24 @@
       <c r="G6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="86.25" customHeight="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="F7" s="19" t="s">
+      <c r="B7" s="49"/>
+      <c r="F7" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="50"/>
     </row>
     <row r="8" spans="1:9" ht="31.5">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="F8" s="17" t="s">
+      <c r="B8" s="48"/>
+      <c r="F8" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="48"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="5" t="s">
@@ -2954,14 +3601,14 @@
       <c r="G26" s="8"/>
     </row>
     <row r="27" spans="1:7" ht="31.5">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="F27" s="17" t="s">
+      <c r="B27" s="48"/>
+      <c r="F27" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="17"/>
+      <c r="G27" s="48"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
@@ -3240,14 +3887,14 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.5">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="F54" s="17" t="s">
+      <c r="B54" s="48"/>
+      <c r="F54" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="G54" s="17"/>
+      <c r="G54" s="48"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="9" t="s">
@@ -3542,7 +4189,7 @@
     <mergeCell ref="F54:G54"/>
   </mergeCells>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="72" priority="8"/>
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -3625,46 +4272,46 @@
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="25"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="29"/>
-    </row>
-    <row r="9" spans="1:2" s="31" customFormat="1">
-      <c r="A9" s="31" t="s">
+      <c r="B8" s="26"/>
+    </row>
+    <row r="9" spans="1:2" s="28" customFormat="1">
+      <c r="A9" s="28" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3679,7 +4326,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3718,8 +4365,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="31" customFormat="1">
-      <c r="A26" s="31" t="s">
+    <row r="26" spans="1:1" s="28" customFormat="1">
+      <c r="A26" s="28" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3729,7 +4376,7 @@
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="28" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3762,91 +4409,91 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" ht="60">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="17.25">
-      <c r="A2" s="34">
+      <c r="A2" s="31">
         <v>0.6</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="34.5">
-      <c r="A3" s="34">
+      <c r="A3" s="31">
         <v>1.3</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34.5">
-      <c r="A4" s="34">
+      <c r="A4" s="31">
         <v>1.4</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="34.5">
-      <c r="A5" s="34">
+      <c r="A5" s="31">
         <v>1.4</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="17.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="30"/>
+      <c r="A8" s="27"/>
     </row>
     <row r="9" spans="1:13" ht="17.25">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="30" t="s">
         <v>68</v>
       </c>
       <c r="H9" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="36">
+      <c r="M9" s="33">
         <f>1/4 * (1 - 1*1) + (3/4)*(1-(2/3)*(2/3) - (1/3)*(1/3))</f>
         <v>0.33333333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="30"/>
+      <c r="A10" s="27"/>
     </row>
     <row r="11" spans="1:13" ht="17.25">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="30" t="s">
         <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>72</v>
       </c>
-      <c r="M11" s="36">
+      <c r="M11" s="33">
         <f>2/4*(1-1/2*1/2-1/2*1/2) + 2/4*(1-1/2*1/2-1/2*1/2)</f>
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="30"/>
+      <c r="A12" s="27"/>
     </row>
     <row r="13" spans="1:13" ht="17.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="17.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3861,143 +4508,339 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W17" sqref="W17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.5703125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="12" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="27"/>
+    <col min="6" max="6" width="9.140625" style="44"/>
+    <col min="7" max="7" width="18.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="27"/>
+    <col min="12" max="12" width="20.28515625" style="27" customWidth="1"/>
+    <col min="13" max="20" width="9.140625" style="27"/>
+    <col min="21" max="21" width="9.140625" style="44"/>
+    <col min="22" max="23" width="9.140625" style="27"/>
+    <col min="24" max="24" width="21.28515625" style="27" customWidth="1"/>
+    <col min="25" max="25" width="16.7109375" style="27" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:31">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25">
-      <c r="A2" s="1">
+      <c r="G1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="V1" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="35"/>
+    </row>
+    <row r="2" spans="1:31" ht="17.25">
+      <c r="A2" s="36">
         <v>0.3</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="36">
         <v>2.9</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="38" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.5">
-      <c r="A3" s="1">
+      <c r="G2" s="36">
+        <v>2.6</v>
+      </c>
+      <c r="H2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="V2" s="36">
+        <v>2.6</v>
+      </c>
+      <c r="W2" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X2" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="46"/>
+    </row>
+    <row r="3" spans="1:31" ht="17.25">
+      <c r="A3" s="36">
         <v>1.4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="36">
         <v>2.6</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="34.5">
-      <c r="A4" s="1">
+      <c r="G3" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="H3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" s="36">
+        <v>2.7</v>
+      </c>
+      <c r="W3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X3" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y3" s="46"/>
+    </row>
+    <row r="4" spans="1:31" ht="17.25">
+      <c r="A4" s="36">
         <v>1.4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="36">
+        <v>2.6</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="36">
+        <v>2.9</v>
+      </c>
+      <c r="H4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="V4" s="36">
+        <v>2.9</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y4" s="46"/>
+    </row>
+    <row r="5" spans="1:31" ht="17.25">
+      <c r="A5" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="36">
         <v>2.7</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D5" s="40" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.5">
-      <c r="A5" s="1">
+      <c r="G5" s="36">
+        <v>2.6</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="47"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="46"/>
+      <c r="Y5" s="46"/>
+    </row>
+    <row r="6" spans="1:31" ht="17.25">
+      <c r="A6" s="36">
         <v>1.4</v>
       </c>
-      <c r="B5" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="B6" s="36">
+        <v>2.9</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.5">
-      <c r="A6" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17.25">
-      <c r="A9" s="38" t="s">
+    <row r="8" spans="1:31" s="42" customFormat="1" ht="15.75">
+      <c r="A8" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="43"/>
+      <c r="U8" s="45"/>
+      <c r="X8" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8" s="43"/>
+    </row>
+    <row r="9" spans="1:31" ht="17.25">
+      <c r="A9" s="34" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="17.25">
-      <c r="A10" s="38" t="s">
+      <c r="B9" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="27">
+        <f>1/5*(1-1)+4/5*(1-2/4*2/4-2/4*2/4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J9" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="M9" s="27">
+        <f>2/4*(1-1/2*1/2) + 2/4*(1-1/2*1/2)</f>
+        <v>0.75</v>
+      </c>
+      <c r="Z9" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA9" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="27">
+        <f>1/3*(1-1) + 2/3*(1-1/2*1/2-1/2*1/2)</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="17.25">
+      <c r="A10" s="34" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25">
-      <c r="A11" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17.25">
-      <c r="A12" s="38" t="s">
+      <c r="B10" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="27">
+        <f>1/5*(1-1)+4/5*(1-2/4*2/4-2/4*2/4)</f>
+        <v>0.4</v>
+      </c>
+      <c r="I10" s="34" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="17.25">
-      <c r="A13" s="37" t="s">
+      <c r="J10" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="27">
+        <f>3/4*(1-2/3*2/3-1/3*1/3) + 1/4*(1-1)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N10" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z10" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA10" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE10" s="27">
+        <f>2/3 * (1-1) + 1/3 * (1-1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="17.25">
+      <c r="A11" s="34"/>
+      <c r="I11" s="34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="17.25">
-      <c r="A14" s="37" t="s">
+      <c r="J11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="27">
+        <f>1/4*(1-1) + 3/4*(1-2/3*2/3 - 1/3*1/3)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z11" s="34"/>
+    </row>
+    <row r="12" spans="1:31" ht="17.25">
+      <c r="A12" s="34"/>
+      <c r="I12" s="34" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="17.25">
-      <c r="A15" s="37" t="s">
-        <v>79</v>
-      </c>
+      <c r="J12" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="27">
+        <f>3/4*(1-2/3*2/3-1/3*1/3) + 1/4 * (1-1)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="N12" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z12" s="34"/>
+    </row>
+    <row r="13" spans="1:31" ht="17.25">
+      <c r="A13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:31" ht="17.25">
+      <c r="A14" s="34"/>
+    </row>
+    <row r="15" spans="1:31" ht="17.25">
+      <c r="A15" s="34"/>
+    </row>
+    <row r="16" spans="1:31" ht="17.25">
+      <c r="A16" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2">
-    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="duplicateValues" dxfId="35" priority="9"/>
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4009,7 +4852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A6">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4021,6 +4864,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G5">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:V5">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -4033,8 +4900,11 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>